--- a/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
+++ b/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinwinarko/eclipse-workspace/DanaPulsaAutomationTest/src/test/java/testCases/otp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/remoteService/promotion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2CB71B-339A-0640-8948-D1CA482813D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCB7090-6EDA-F14B-803B-42C6EACCC62D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Get Promotion Vouchers" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,27 +33,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
-    <t>id</t>
+    <t>user id</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>9999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,12 +67,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -98,25 +105,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,64 +431,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
+++ b/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/remoteService/promotion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCB7090-6EDA-F14B-803B-42C6EACCC62D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D40C10-A012-E24F-8EAB-BACCA3335671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Get Promotion Vouchers" sheetId="2" r:id="rId1"/>
+    <sheet name="Get Voucher Details" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>user id</t>
   </si>
@@ -45,6 +46,27 @@
   </si>
   <si>
     <t>9999</t>
+  </si>
+  <si>
+    <t>voucher id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Valid ID</t>
+  </si>
+  <si>
+    <t>Undefined ID</t>
+  </si>
+  <si>
+    <t>Empty String</t>
   </si>
 </sst>
 </file>
@@ -108,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -117,6 +139,18 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,4 +525,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7BCED6-A6C1-F744-AE33-9620C5267380}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
+++ b/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/remoteService/promotion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D40C10-A012-E24F-8EAB-BACCA3335671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60DE416-600A-E641-B214-D001D0306E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Get Promotion Vouchers" sheetId="2" r:id="rId1"/>
-    <sheet name="Get Voucher Details" sheetId="3" r:id="rId2"/>
+    <sheet name="Get My Vouchers" sheetId="4" r:id="rId2"/>
+    <sheet name="Get Voucher Details" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t>user id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>page</t>
   </si>
@@ -67,6 +65,24 @@
   </si>
   <si>
     <t>Empty String</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>Valid user id and page</t>
+  </si>
+  <si>
+    <t>Undefined user id</t>
+  </si>
+  <si>
+    <t>Undefined page</t>
+  </si>
+  <si>
+    <t>Empty string page</t>
+  </si>
+  <si>
+    <t>Empty string user id</t>
   </si>
 </sst>
 </file>
@@ -130,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -149,6 +165,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -465,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,49 +497,67 @@
     <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>9999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -528,11 +565,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63BD89A-7FF1-DD43-8183-237CABA760D5}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7BCED6-A6C1-F744-AE33-9620C5267380}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,39 +659,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6"/>
     </row>

--- a/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
+++ b/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/remoteService/promotion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60DE416-600A-E641-B214-D001D0306E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E708A50F-92DA-1A44-9EEF-5A5087653BF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" activeTab="2" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Get Promotion Vouchers" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>page</t>
   </si>
@@ -55,9 +55,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>Valid ID</t>
   </si>
   <si>
@@ -83,6 +80,27 @@
   </si>
   <si>
     <t>Empty string user id</t>
+  </si>
+  <si>
+    <t>testCase</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>voucher not found</t>
+  </si>
+  <si>
+    <t>"id":1</t>
+  </si>
+  <si>
+    <t>"id":2</t>
+  </si>
+  <si>
+    <t>invalid request format</t>
   </si>
 </sst>
 </file>
@@ -146,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -170,6 +188,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,31 +518,35 @@
     <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -529,19 +554,21 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -549,15 +576,17 @@
       <c r="C5" s="1">
         <v>9999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
+      <c r="D6" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -566,10 +595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63BD89A-7FF1-DD43-8183-237CABA760D5}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,31 +606,35 @@
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -609,35 +642,39 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>9999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1"/>
+      <c r="D6" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -646,54 +683,70 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7BCED6-A6C1-F744-AE33-9620C5267380}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6"/>
+      <c r="C5" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
+++ b/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/remoteService/promotion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E708A50F-92DA-1A44-9EEF-5A5087653BF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EFAA5E-9FFB-2641-BDEC-22F05B4F0EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" activeTab="2" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Get Promotion Vouchers" sheetId="2" r:id="rId1"/>
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>page</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>9999</t>
   </si>
   <si>
@@ -101,6 +98,36 @@
   </si>
   <si>
     <t>invalid request format</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>unknown user</t>
+  </si>
+  <si>
+    <t>"id":11</t>
+  </si>
+  <si>
+    <t>Valid user id and page (no voucher)</t>
+  </si>
+  <si>
+    <t>Valid user id and page (more than 10 vouchers)</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>you don’t have any vouchers</t>
+  </si>
+  <si>
+    <t>Valid user id and page ( below 10 vouchers)</t>
   </si>
 </sst>
 </file>
@@ -505,88 +532,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3"/>
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="1">
-        <v>9999</v>
-      </c>
-      <c r="D5" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9999</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -595,86 +648,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63BD89A-7FF1-DD43-8183-237CABA760D5}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3"/>
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>9999</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="12"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9999</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -685,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7BCED6-A6C1-F744-AE33-9620C5267380}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,55 +803,55 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
+++ b/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/remoteService/promotion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EFAA5E-9FFB-2641-BDEC-22F05B4F0EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40787CB3-88B4-1844-AC0C-3E6D0EC8CC67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Get Promotion Vouchers" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>page</t>
   </si>
@@ -82,9 +82,6 @@
     <t>testCase</t>
   </si>
   <si>
-    <t>181</t>
-  </si>
-  <si>
     <t>result</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>unknown user</t>
   </si>
   <si>
-    <t>"id":11</t>
-  </si>
-  <si>
     <t>Valid user id and page (no voucher)</t>
   </si>
   <si>
@@ -128,6 +122,9 @@
   </si>
   <si>
     <t>Valid user id and page ( below 10 vouchers)</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -534,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -558,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -566,28 +563,24 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -600,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -612,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -620,13 +613,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1">
         <v>9999</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -634,11 +627,11 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -650,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63BD89A-7FF1-DD43-8183-237CABA760D5}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -671,63 +664,63 @@
         <v>0</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -741,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -753,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -761,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1">
         <v>9999</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -775,11 +768,11 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -809,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -820,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -831,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -842,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -851,7 +844,7 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
+++ b/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/remoteService/promotion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40787CB3-88B4-1844-AC0C-3E6D0EC8CC67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF9A608-D09B-7B42-BC36-22203DFE27E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="3" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Get Promotion Vouchers" sheetId="2" r:id="rId1"/>
     <sheet name="Get My Vouchers" sheetId="4" r:id="rId2"/>
-    <sheet name="Get Voucher Details" sheetId="3" r:id="rId3"/>
+    <sheet name="Get Voucher Recommendation" sheetId="5" r:id="rId3"/>
+    <sheet name="Get Voucher Details" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>page</t>
   </si>
@@ -100,31 +101,34 @@
     <t>[]</t>
   </si>
   <si>
-    <t>unknown user</t>
-  </si>
-  <si>
     <t>Valid user id and page (no voucher)</t>
   </si>
   <si>
     <t>Valid user id and page (more than 10 vouchers)</t>
   </si>
   <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
     <t>you don’t have any vouchers</t>
   </si>
   <si>
-    <t>Valid user id and page ( below 10 vouchers)</t>
-  </si>
-  <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>user not found</t>
+  </si>
+  <si>
+    <t>Valid user id and page (below 10 vouchers)</t>
+  </si>
+  <si>
+    <t>{"id":11,"name":"Diskon 25% (max Rp 25.000) buat beli pulsa","voucherTypeName":"discount","discount":25,"maxDeduction":25000,"value":0,"filePath":"https://res.cloudinary.com/darwmcfjo/image/upload/v1591548482/WhatsApp_Image_2020-05-30_at_7.27.48_PM_nessez.jpg","expiryDate":1500508800000}</t>
+  </si>
+  <si>
+    <t>{"id":1,"name":"Cashback Rp 1.000 buat beli pulsa","voucherTypeName":"cashback","discount":0,"maxDeduction":0,"value":1000,"filePath":"https://res.cloudinary.com/darwmcfjo/image/upload/v1591548482/WhatsApp_Image_2020-05-30_at_7.27.48_PM_nessez.jpg","expiryDate":1184889600000}</t>
+  </si>
+  <si>
+    <t>{"id":11,"name":"Diskon 25% (max Rp 25.000) buat beli pulsa","voucherTypeName":"discount","filePath":"https://res.cloudinary.com/darwmcfjo/image/upload/v1591548482/WhatsApp_Image_2020-05-30_at_7.27.48_PM_nessez.jpg","expiryDate":1500508800000}</t>
+  </si>
+  <si>
+    <t>{"id":1,"name":"Cashback Rp 1.000 buat beli pulsa","voucherTypeName":"cashback","filePath":"https://res.cloudinary.com/darwmcfjo/image/upload/v1591548482/WhatsApp_Image_2020-05-30_at_7.27.48_PM_nessez.jpg","expiryDate":1184889600000}</t>
   </si>
 </sst>
 </file>
@@ -531,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F2C92-1070-F549-ABD8-21E67EECDFEF}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,7 +544,7 @@
     <col min="1" max="1" width="26.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="2"/>
-    <col min="4" max="4" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="225.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -563,24 +567,28 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -593,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>9999</v>
@@ -627,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="13" t="s">
@@ -650,7 +658,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -669,7 +677,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>24</v>
@@ -678,49 +686,49 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -734,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -754,13 +762,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>9999</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -768,7 +776,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="12" t="s">
@@ -781,11 +789,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A6D8EB-77BA-294A-8AB9-676FE25153E6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7BCED6-A6C1-F744-AE33-9620C5267380}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
+++ b/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/remoteService/promotion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF9A608-D09B-7B42-BC36-22203DFE27E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34637EE-2ACE-4449-956A-97BCB7AD8F9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="3" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Get Promotion Vouchers" sheetId="2" r:id="rId1"/>
     <sheet name="Get My Vouchers" sheetId="4" r:id="rId2"/>
     <sheet name="Get Voucher Recommendation" sheetId="5" r:id="rId3"/>
-    <sheet name="Get Voucher Details" sheetId="3" r:id="rId4"/>
+    <sheet name="Redeem" sheetId="6" r:id="rId4"/>
+    <sheet name="Get Voucher Details" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
   <si>
     <t>page</t>
   </si>
@@ -129,6 +130,75 @@
   </si>
   <si>
     <t>{"id":1,"name":"Cashback Rp 1.000 buat beli pulsa","voucherTypeName":"cashback","filePath":"https://res.cloudinary.com/darwmcfjo/image/upload/v1591548482/WhatsApp_Image_2020-05-30_at_7.27.48_PM_nessez.jpg","expiryDate":1184889600000}</t>
+  </si>
+  <si>
+    <t>transactionId</t>
+  </si>
+  <si>
+    <t>Undefined transaction id</t>
+  </si>
+  <si>
+    <t>Empty string transaction id</t>
+  </si>
+  <si>
+    <t>Another user's transaction</t>
+  </si>
+  <si>
+    <t>Valid user id (below minimum purchase)</t>
+  </si>
+  <si>
+    <t>Valid user id (meets minimum purchase)</t>
+  </si>
+  <si>
+    <t>voucherId</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>paymentMethodId</t>
+  </si>
+  <si>
+    <t>providerId</t>
+  </si>
+  <si>
+    <t>Undefined voucher id</t>
+  </si>
+  <si>
+    <t>Empty string voucher id</t>
+  </si>
+  <si>
+    <t>Voucher not available for the transaction</t>
+  </si>
+  <si>
+    <t>Voucher already used</t>
+  </si>
+  <si>
+    <t>Voucher expired</t>
+  </si>
+  <si>
+    <t>Undefined payment method id</t>
+  </si>
+  <si>
+    <t>Empty string payment method id</t>
+  </si>
+  <si>
+    <t>Undefined provider id</t>
+  </si>
+  <si>
+    <t>Empty string provider id</t>
+  </si>
+  <si>
+    <t>Empty string price</t>
+  </si>
+  <si>
+    <t>Valid parameters cashback</t>
+  </si>
+  <si>
+    <t>Valid parameters discount</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -192,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -219,6 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,7 +723,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -790,21 +861,451 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A6D8EB-77BA-294A-8AB9-676FE25153E6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9999</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4602EF1-DB6E-8E41-A310-4ADDBF858973}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12">
+        <v>100000</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="12">
+        <v>100000</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>2</v>
+      </c>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12">
+        <v>100000</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
+        <v>2</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12">
+        <v>100000</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="12">
+        <v>100000</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="12">
+        <v>100000</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12">
+        <v>100000</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2</v>
+      </c>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12">
+        <v>100000</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12">
+        <v>100000</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>2</v>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="12">
+        <v>100000</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12">
+        <v>100000</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>2</v>
+      </c>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="12">
+        <v>100000</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12">
+        <v>7</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="12">
+        <v>100000</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7BCED6-A6C1-F744-AE33-9620C5267380}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>

--- a/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
+++ b/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/remoteService/promotion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34637EE-2ACE-4449-956A-97BCB7AD8F9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53433442-0A70-A049-A859-66F3C5A70C4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="62">
   <si>
     <t>page</t>
   </si>
@@ -199,6 +199,30 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>your voucher not found</t>
+  </si>
+  <si>
+    <t>"voucherTypeName":"cashback","finalPrice":100000,"value":1000</t>
+  </si>
+  <si>
+    <t>"voucherTypeName":"discount","finalPrice":95000,"value":0</t>
+  </si>
+  <si>
+    <t>Valid user id (have no vouchers)</t>
+  </si>
+  <si>
+    <t>unknown provider</t>
+  </si>
+  <si>
+    <t>your voucher is not applicable with payment method</t>
   </si>
 </sst>
 </file>
@@ -861,17 +885,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A6D8EB-77BA-294A-8AB9-676FE25153E6}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -889,8 +913,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
+      <c r="A2" t="s">
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>24</v>
@@ -898,11 +922,13 @@
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>24</v>
@@ -914,39 +940,37 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1">
-        <v>9999</v>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>19</v>
@@ -954,25 +978,39 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>9999</v>
+      </c>
       <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -984,7 +1022,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -993,6 +1031,7 @@
     <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1037,7 +1076,9 @@
       <c r="F2" s="12">
         <v>2</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1058,7 +1099,9 @@
       <c r="F3" s="12">
         <v>2</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1079,7 +1122,9 @@
       <c r="F4" s="12">
         <v>2</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -1098,7 +1143,9 @@
       <c r="F5" s="12">
         <v>2</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1107,7 +1154,9 @@
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D6" s="12">
         <v>100000</v>
       </c>
@@ -1117,7 +1166,9 @@
       <c r="F6" s="12">
         <v>2</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1136,7 +1187,9 @@
       <c r="F7" s="12">
         <v>2</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
@@ -1145,7 +1198,9 @@
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D8" s="12">
         <v>100000</v>
       </c>
@@ -1155,7 +1210,9 @@
       <c r="F8" s="12">
         <v>2</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
@@ -1164,7 +1221,9 @@
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D9" s="12">
         <v>100000</v>
       </c>
@@ -1174,7 +1233,9 @@
       <c r="F9" s="12">
         <v>2</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
@@ -1183,7 +1244,9 @@
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D10" s="12">
         <v>100000</v>
       </c>
@@ -1193,7 +1256,9 @@
       <c r="F10" s="12">
         <v>2</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1212,7 +1277,9 @@
       <c r="F11" s="12">
         <v>2</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1233,7 +1300,9 @@
       <c r="F12" s="12">
         <v>2</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -1248,13 +1317,13 @@
       <c r="D13" s="12">
         <v>100000</v>
       </c>
-      <c r="E13" s="12">
-        <v>0</v>
-      </c>
+      <c r="E13" s="12"/>
       <c r="F13" s="12">
         <v>2</v>
       </c>
-      <c r="G13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1275,7 +1344,9 @@
       <c r="F14" s="12">
         <v>7</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -1294,7 +1365,9 @@
         <v>1</v>
       </c>
       <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
+++ b/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/remoteService/promotion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53433442-0A70-A049-A859-66F3C5A70C4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18B32AF-3B79-CC4C-8EE3-D8357BBA4F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="2" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Get Promotion Vouchers" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="62">
   <si>
     <t>page</t>
   </si>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A6D8EB-77BA-294A-8AB9-676FE25153E6}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -922,9 +922,7 @@
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -960,9 +958,7 @@
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -972,9 +968,7 @@
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -986,9 +980,7 @@
       <c r="C7" s="1">
         <v>9999</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -998,9 +990,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
@@ -1021,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4602EF1-DB6E-8E41-A310-4ADDBF858973}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
+++ b/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/remoteService/promotion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18B32AF-3B79-CC4C-8EE3-D8357BBA4F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2649056A-8358-9746-9339-183A92129973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="2" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Get Promotion Vouchers" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
   <si>
     <t>page</t>
   </si>
@@ -222,14 +222,23 @@
     <t>unknown provider</t>
   </si>
   <si>
-    <t>your voucher is not applicable with payment method</t>
+    <t>Voucher doesn't meet minimum purchase</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>insufficient purchase amount to use this voucher</t>
+  </si>
+  <si>
+    <t>unknown payment method</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -239,6 +248,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -286,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -314,6 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,7 +905,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1009,15 +1026,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4602EF1-DB6E-8E41-A310-4ADDBF858973}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -1113,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1251,29 +1268,31 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>50</v>
+      <c r="A11" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>62</v>
+      </c>
+      <c r="D11" s="12">
+        <v>100000</v>
+      </c>
       <c r="E11" s="12">
         <v>1</v>
       </c>
       <c r="F11" s="12">
         <v>2</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>19</v>
+      <c r="G11" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
@@ -1281,22 +1300,20 @@
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="12">
-        <v>100000</v>
-      </c>
+      <c r="D12" s="12"/>
       <c r="E12" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="12">
         <v>2</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -1307,17 +1324,19 @@
       <c r="D13" s="12">
         <v>100000</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="12">
+        <v>2</v>
+      </c>
       <c r="F13" s="12">
         <v>2</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
@@ -1328,19 +1347,17 @@
       <c r="D14" s="12">
         <v>100000</v>
       </c>
-      <c r="E14" s="12">
-        <v>1</v>
-      </c>
+      <c r="E14" s="12"/>
       <c r="F14" s="12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>24</v>
@@ -1354,8 +1371,31 @@
       <c r="E15" s="12">
         <v>1</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="12">
+        <v>7</v>
+      </c>
       <c r="G15" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="12">
+        <v>100000</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
+++ b/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/remoteService/promotion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2649056A-8358-9746-9339-183A92129973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C537B4FC-1586-3749-8B62-63B25546669F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Get Promotion Vouchers" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="67">
   <si>
     <t>page</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>unknown payment method</t>
+  </si>
+  <si>
+    <t>transaction not found or expired</t>
+  </si>
+  <si>
+    <t>{"id":4,"name":"Cashback Rp 2.500 buat beli pulsa","voucherTypeName":"cashback","discount":0,"maxDeduction":0,"value":2500,"filePath":"https://res.cloudinary.com/darwmcfjo/image/upload/v1591548482/WhatsApp_Image_2020-05-30_at_7.27.48_PM_nessez.jpg","expiryDate":1279584000000}</t>
   </si>
 </sst>
 </file>
@@ -904,15 +910,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A6D8EB-77BA-294A-8AB9-676FE25153E6}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="254.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -939,7 +945,9 @@
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -951,7 +959,9 @@
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -963,7 +973,9 @@
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -975,7 +987,9 @@
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -985,7 +999,9 @@
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -997,7 +1013,9 @@
       <c r="C7" s="1">
         <v>9999</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1007,7 +1025,9 @@
         <v>24</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
@@ -1017,7 +1037,9 @@
         <v>24</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1028,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4602EF1-DB6E-8E41-A310-4ADDBF858973}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
+++ b/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/remoteService/promotion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C537B4FC-1586-3749-8B62-63B25546669F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0318B13-9D28-0D49-8F93-0BA215644202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Get Promotion Vouchers" sheetId="2" r:id="rId1"/>
     <sheet name="Get My Vouchers" sheetId="4" r:id="rId2"/>
     <sheet name="Get Voucher Recommendation" sheetId="5" r:id="rId3"/>
     <sheet name="Redeem" sheetId="6" r:id="rId4"/>
-    <sheet name="Get Voucher Details" sheetId="3" r:id="rId5"/>
+    <sheet name="Unredeem" sheetId="7" r:id="rId5"/>
+    <sheet name="Get Voucher Details" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="69">
   <si>
     <t>page</t>
   </si>
@@ -238,6 +239,12 @@
   </si>
   <si>
     <t>{"id":4,"name":"Cashback Rp 2.500 buat beli pulsa","voucherTypeName":"cashback","discount":0,"maxDeduction":0,"value":2500,"filePath":"https://res.cloudinary.com/darwmcfjo/image/upload/v1591548482/WhatsApp_Image_2020-05-30_at_7.27.48_PM_nessez.jpg","expiryDate":1279584000000}</t>
+  </si>
+  <si>
+    <t>voucher you want to redeem is either not found, has been used or already expired</t>
+  </si>
+  <si>
+    <t>Valid parameters</t>
   </si>
 </sst>
 </file>
@@ -654,7 +661,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -911,7 +918,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1050,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4602EF1-DB6E-8E41-A310-4ADDBF858973}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1060,7 +1067,7 @@
     <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1196,7 +1203,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1427,6 +1434,94 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389C0027-E7EC-B242-A97E-6221E2A23AAE}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7BCED6-A6C1-F744-AE33-9620C5267380}">
   <dimension ref="A1:C5"/>
   <sheetViews>

--- a/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
+++ b/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/remoteService/promotion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0318B13-9D28-0D49-8F93-0BA215644202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1A90C9-C908-8947-B3B9-555575141087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Get Promotion Vouchers" sheetId="2" r:id="rId1"/>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4602EF1-DB6E-8E41-A310-4ADDBF858973}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1270,7 +1270,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1293,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1437,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389C0027-E7EC-B242-A97E-6221E2A23AAE}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
+++ b/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/remoteService/promotion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1A90C9-C908-8947-B3B9-555575141087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678CC89F-11BF-A142-843F-19D6B1CD2170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="4" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Get Promotion Vouchers" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="69">
   <si>
     <t>page</t>
   </si>
@@ -1057,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4602EF1-DB6E-8E41-A310-4ADDBF858973}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1437,13 +1437,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389C0027-E7EC-B242-A97E-6221E2A23AAE}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1492,7 +1493,9 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1504,7 +1507,9 @@
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1514,7 +1519,9 @@
         <v>24</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
+++ b/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/remoteService/promotion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678CC89F-11BF-A142-843F-19D6B1CD2170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F384E5E9-8EB8-4E4D-A2E2-6181B6953D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="4" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Get Promotion Vouchers" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Redeem" sheetId="6" r:id="rId4"/>
     <sheet name="Unredeem" sheetId="7" r:id="rId5"/>
     <sheet name="Get Voucher Details" sheetId="3" r:id="rId6"/>
+    <sheet name="Issue" sheetId="8" r:id="rId7"/>
+    <sheet name="Eligible to Get Voucher" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="69">
   <si>
     <t>page</t>
   </si>
@@ -288,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -311,11 +313,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -344,6 +357,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1058,7 +1072,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1437,7 +1451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389C0027-E7EC-B242-A97E-6221E2A23AAE}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1598,4 +1612,129 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BFE7B0-1239-5B4D-B7B5-C69DD09FA8E6}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="D2" s="12">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D745F631-99EE-AF47-AB11-C950384D8526}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="12">
+        <v>100000</v>
+      </c>
+      <c r="D2" s="12">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
+++ b/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/remoteService/promotion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F384E5E9-8EB8-4E4D-A2E2-6181B6953D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4876807-E17C-8E41-BD70-DB7FAD48270A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="7" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Get Promotion Vouchers" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="70">
   <si>
     <t>page</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Valid parameters</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1449,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389C0027-E7EC-B242-A97E-6221E2A23AAE}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1486,56 +1489,6 @@
         <v>3</v>
       </c>
       <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="12" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1618,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BFE7B0-1239-5B4D-B7B5-C69DD09FA8E6}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1665,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="F2" s="12">
         <v>1</v>
@@ -1681,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D745F631-99EE-AF47-AB11-C950384D8526}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1732,7 +1685,9 @@
       <c r="F2" s="12">
         <v>1</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
+++ b/src/test/java/remoteService/promotion/RemoteServicePromotionTestData.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/Hands On Project/DANA Pulsa/Automation Testing/DanaPulsaAutomationTest/src/test/java/remoteService/promotion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4876807-E17C-8E41-BD70-DB7FAD48270A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A18BC85-1ABD-C14E-8ED8-43396C15357D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="7" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
   <sheets>
     <sheet name="Get Promotion Vouchers" sheetId="2" r:id="rId1"/>
     <sheet name="Get My Vouchers" sheetId="4" r:id="rId2"/>
     <sheet name="Get Voucher Recommendation" sheetId="5" r:id="rId3"/>
-    <sheet name="Redeem" sheetId="6" r:id="rId4"/>
-    <sheet name="Unredeem" sheetId="7" r:id="rId5"/>
-    <sheet name="Get Voucher Details" sheetId="3" r:id="rId6"/>
+    <sheet name="Get Voucher Details" sheetId="3" r:id="rId4"/>
+    <sheet name="Redeem" sheetId="6" r:id="rId5"/>
+    <sheet name="Unredeem" sheetId="7" r:id="rId6"/>
     <sheet name="Issue" sheetId="8" r:id="rId7"/>
     <sheet name="Eligible to Get Voucher" sheetId="9" r:id="rId8"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="72">
   <si>
     <t>page</t>
   </si>
@@ -210,9 +210,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>your voucher not found</t>
-  </si>
-  <si>
     <t>"voucherTypeName":"cashback","finalPrice":100000,"value":1000</t>
   </si>
   <si>
@@ -250,6 +247,15 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>Voucher id not 0</t>
+  </si>
+  <si>
+    <t>Undefined payment methd id</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -331,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -361,6 +367,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -934,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A6D8EB-77BA-294A-8AB9-676FE25153E6}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -961,7 +968,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>24</v>
@@ -998,7 +1005,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1038,7 +1045,7 @@
         <v>9999</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1062,7 +1069,7 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1071,11 +1078,83 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7BCED6-A6C1-F744-AE33-9620C5267380}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4602EF1-DB6E-8E41-A310-4ADDBF858973}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F16"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1130,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1153,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1220,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1264,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1287,7 +1366,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1310,18 +1389,18 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D11" s="12">
         <v>100000</v>
@@ -1333,7 +1412,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1377,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1421,7 +1500,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1450,12 +1529,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389C0027-E7EC-B242-A97E-6221E2A23AAE}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1480,7 +1559,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>24</v>
@@ -1489,78 +1568,6 @@
         <v>3</v>
       </c>
       <c r="D2" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7BCED6-A6C1-F744-AE33-9620C5267380}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="12" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1618,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="12">
         <v>1</v>
@@ -1632,15 +1639,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D745F631-99EE-AF47-AB11-C950384D8526}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1662,31 +1671,207 @@
       <c r="F1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="12">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="D2" s="12">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="F2" s="12">
         <v>1</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="12">
+        <v>9999</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="D6" s="12">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="D8" s="17">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
